--- a/REGULAR/ASSESSOR/ANACAY, ABNER.xlsx
+++ b/REGULAR/ASSESSOR/ANACAY, ABNER.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="459">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1388,9 +1388,6 @@
     <t>9/18-22,25-29 , 10/2-6, 9-13/2023</t>
   </si>
   <si>
-    <t>12/26,27/2023</t>
-  </si>
-  <si>
     <t>12/18-22/2023</t>
   </si>
   <si>
@@ -1398,6 +1395,21 @@
   </si>
   <si>
     <t>10/16-20,23-27,31, 11/3, 6-10,13-15/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/26,27/2023 (27,28)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-16)</t>
+  </si>
+  <si>
+    <t>UT(0-3-36)</t>
   </si>
 </sst>
 </file>
@@ -2094,8 +2106,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K696" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K696"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K699" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K699"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2424,12 +2436,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K696"/>
+  <dimension ref="A2:K699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A628" activePane="bottomLeft"/>
       <selection activeCell="H17" sqref="H17"/>
-      <selection pane="bottomLeft" activeCell="H656" sqref="H656"/>
+      <selection pane="bottomLeft" activeCell="E642" sqref="E642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2607,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.569000000000074</v>
+        <v>65.33600000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2605,7 +2617,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>81.05</v>
+        <v>82.3</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16644,11 +16656,15 @@
       <c r="A635" s="39">
         <v>44958</v>
       </c>
-      <c r="B635" s="20"/>
+      <c r="B635" s="20" t="s">
+        <v>458</v>
+      </c>
       <c r="C635" s="13">
         <v>1.25</v>
       </c>
-      <c r="D635" s="38"/>
+      <c r="D635" s="38">
+        <v>0.45</v>
+      </c>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
       <c r="G635" s="13">
@@ -16664,11 +16680,15 @@
       <c r="A636" s="39">
         <v>44986</v>
       </c>
-      <c r="B636" s="20"/>
+      <c r="B636" s="20" t="s">
+        <v>456</v>
+      </c>
       <c r="C636" s="13">
         <v>1.25</v>
       </c>
-      <c r="D636" s="38"/>
+      <c r="D636" s="38">
+        <v>1</v>
+      </c>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
       <c r="G636" s="13">
@@ -16678,7 +16698,9 @@
       <c r="H636" s="38"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
-      <c r="K636" s="20"/>
+      <c r="K636" s="48">
+        <v>44995</v>
+      </c>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
@@ -16705,106 +16727,100 @@
       </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="39">
-        <v>45047</v>
-      </c>
+      <c r="A638" s="39"/>
       <c r="B638" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C638" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D638" s="38"/>
+        <v>456</v>
+      </c>
+      <c r="C638" s="13"/>
+      <c r="D638" s="38">
+        <v>1</v>
+      </c>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H638" s="38">
-        <v>1</v>
-      </c>
+      <c r="G638" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H638" s="38"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
       <c r="K638" s="48">
-        <v>45061</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A639" s="39"/>
+      <c r="A639" s="39">
+        <v>45047</v>
+      </c>
       <c r="B639" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="C639" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="C639" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D639" s="38"/>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G639" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H639" s="38">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
-      <c r="K639" s="48" t="s">
-        <v>443</v>
+      <c r="K639" s="48">
+        <v>45061</v>
       </c>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A640" s="39">
-        <v>45078</v>
-      </c>
-      <c r="B640" s="20"/>
-      <c r="C640" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A640" s="39"/>
+      <c r="B640" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C640" s="13"/>
       <c r="D640" s="38"/>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H640" s="38"/>
+      <c r="G640" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H640" s="38">
+        <v>19</v>
+      </c>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
-      <c r="K640" s="48"/>
+      <c r="K640" s="48" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A641" s="39">
-        <v>45108</v>
-      </c>
+      <c r="A641" s="39"/>
       <c r="B641" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="C641" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D641" s="38"/>
+        <v>457</v>
+      </c>
+      <c r="C641" s="13"/>
+      <c r="D641" s="38">
+        <v>3.3000000000000015E-2</v>
+      </c>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H641" s="38">
-        <v>20</v>
-      </c>
+      <c r="G641" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H641" s="38"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
-      <c r="K641" s="20" t="s">
-        <v>444</v>
-      </c>
+      <c r="K641" s="48"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39">
-        <v>45139</v>
-      </c>
-      <c r="B642" s="20" t="s">
-        <v>446</v>
-      </c>
+        <v>45078</v>
+      </c>
+      <c r="B642" s="20"/>
       <c r="C642" s="13">
         <v>1.25</v>
       </c>
@@ -16815,27 +16831,27 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H642" s="38">
-        <v>21</v>
-      </c>
+      <c r="H642" s="38"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
-      <c r="K642" s="20" t="s">
-        <v>447</v>
-      </c>
+      <c r="K642" s="48"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A643" s="39"/>
+      <c r="A643" s="39">
+        <v>45108</v>
+      </c>
       <c r="B643" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="C643" s="13"/>
+      <c r="C643" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D643" s="38"/>
       <c r="E643" s="9"/>
       <c r="F643" s="20"/>
-      <c r="G643" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G643" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H643" s="38">
         <v>20</v>
@@ -16843,15 +16859,15 @@
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
       <c r="K643" s="20" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B644" s="20" t="s">
-        <v>46</v>
+        <v>446</v>
       </c>
       <c r="C644" s="13">
         <v>1.25</v>
@@ -16863,11 +16879,13 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H644" s="38"/>
+      <c r="H644" s="38">
+        <v>21</v>
+      </c>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
       <c r="K644" s="20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
@@ -16889,14 +16907,16 @@
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
       <c r="K645" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39">
-        <v>45200</v>
-      </c>
-      <c r="B646" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B646" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C646" s="13">
         <v>1.25</v>
       </c>
@@ -16910,105 +16930,105 @@
       <c r="H646" s="38"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
-      <c r="K646" s="20"/>
+      <c r="K646" s="20" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A647" s="39">
-        <v>45231</v>
-      </c>
+      <c r="A647" s="39"/>
       <c r="B647" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C647" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D647" s="38">
-        <v>2</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C647" s="13"/>
+      <c r="D647" s="38"/>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
-      <c r="G647" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H647" s="38"/>
+      <c r="G647" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H647" s="38">
+        <v>20</v>
+      </c>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
       <c r="K647" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A648" s="39"/>
-      <c r="B648" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C648" s="13"/>
-      <c r="D648" s="38">
-        <v>5</v>
-      </c>
+      <c r="A648" s="39">
+        <v>45200</v>
+      </c>
+      <c r="B648" s="20"/>
+      <c r="C648" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D648" s="38"/>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G648" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H648" s="38"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
-      <c r="K648" s="20" t="s">
-        <v>452</v>
-      </c>
+      <c r="K648" s="20"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A649" s="39"/>
+      <c r="A649" s="39">
+        <v>45231</v>
+      </c>
       <c r="B649" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="C649" s="13"/>
-      <c r="D649" s="38"/>
+        <v>90</v>
+      </c>
+      <c r="C649" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D649" s="38">
+        <v>2</v>
+      </c>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H649" s="38">
-        <v>20</v>
-      </c>
+      <c r="G649" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H649" s="38"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
       <c r="K649" s="20" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39"/>
       <c r="B650" s="20" t="s">
-        <v>445</v>
+        <v>47</v>
       </c>
       <c r="C650" s="13"/>
-      <c r="D650" s="38"/>
+      <c r="D650" s="38">
+        <v>5</v>
+      </c>
       <c r="E650" s="9"/>
       <c r="F650" s="20"/>
       <c r="G650" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H650" s="38">
-        <v>20</v>
-      </c>
+      <c r="H650" s="38"/>
       <c r="I650" s="9"/>
       <c r="J650" s="11"/>
       <c r="K650" s="20" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B651" s="20"/>
+      <c r="A651" s="39"/>
+      <c r="B651" s="20" t="s">
+        <v>445</v>
+      </c>
       <c r="C651" s="13"/>
       <c r="D651" s="38"/>
       <c r="E651" s="9"/>
@@ -17017,14 +17037,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H651" s="38"/>
+      <c r="H651" s="38">
+        <v>20</v>
+      </c>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
-      <c r="K651" s="20"/>
+      <c r="K651" s="20" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="39"/>
-      <c r="B652" s="20"/>
+      <c r="B652" s="20" t="s">
+        <v>445</v>
+      </c>
       <c r="C652" s="13"/>
       <c r="D652" s="38"/>
       <c r="E652" s="9"/>
@@ -17033,29 +17059,45 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H652" s="38"/>
+      <c r="H652" s="38">
+        <v>20</v>
+      </c>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
-      <c r="K652" s="20"/>
+      <c r="K652" s="20" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" s="39"/>
-      <c r="B653" s="20"/>
-      <c r="C653" s="13"/>
-      <c r="D653" s="38"/>
+      <c r="A653" s="39">
+        <v>45261</v>
+      </c>
+      <c r="B653" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="C653" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D653" s="38">
+        <v>1</v>
+      </c>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
-      <c r="G653" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G653" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H653" s="38"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
-      <c r="K653" s="20"/>
+      <c r="K653" s="48">
+        <v>45289</v>
+      </c>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="39"/>
+      <c r="A654" s="47" t="s">
+        <v>454</v>
+      </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
       <c r="D654" s="38"/>
@@ -17071,7 +17113,9 @@
       <c r="K654" s="20"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="39"/>
+      <c r="A655" s="39">
+        <v>45292</v>
+      </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
       <c r="D655" s="38"/>
@@ -17087,7 +17131,9 @@
       <c r="K655" s="20"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="39"/>
+      <c r="A656" s="39">
+        <v>45323</v>
+      </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
       <c r="D656" s="38"/>
@@ -17103,7 +17149,9 @@
       <c r="K656" s="20"/>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A657" s="39"/>
+      <c r="A657" s="39">
+        <v>45352</v>
+      </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
       <c r="D657" s="38"/>
@@ -17119,7 +17167,9 @@
       <c r="K657" s="20"/>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A658" s="39"/>
+      <c r="A658" s="39">
+        <v>45383</v>
+      </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
       <c r="D658" s="38"/>
@@ -17135,7 +17185,9 @@
       <c r="K658" s="20"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" s="39"/>
+      <c r="A659" s="39">
+        <v>45413</v>
+      </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
       <c r="D659" s="38"/>
@@ -17151,7 +17203,9 @@
       <c r="K659" s="20"/>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="39"/>
+      <c r="A660" s="39">
+        <v>45444</v>
+      </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
       <c r="D660" s="38"/>
@@ -17167,7 +17221,9 @@
       <c r="K660" s="20"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" s="39"/>
+      <c r="A661" s="39">
+        <v>45474</v>
+      </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
       <c r="D661" s="38"/>
@@ -17183,7 +17239,9 @@
       <c r="K661" s="20"/>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="39"/>
+      <c r="A662" s="39">
+        <v>45505</v>
+      </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
       <c r="D662" s="38"/>
@@ -17199,7 +17257,9 @@
       <c r="K662" s="20"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="39"/>
+      <c r="A663" s="39">
+        <v>45536</v>
+      </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
       <c r="D663" s="38"/>
@@ -17215,7 +17275,9 @@
       <c r="K663" s="20"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="39"/>
+      <c r="A664" s="39">
+        <v>45566</v>
+      </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
       <c r="D664" s="38"/>
@@ -17231,7 +17293,9 @@
       <c r="K664" s="20"/>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="39"/>
+      <c r="A665" s="39">
+        <v>45597</v>
+      </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
       <c r="D665" s="38"/>
@@ -17727,20 +17791,68 @@
       <c r="K695" s="20"/>
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A696" s="40"/>
-      <c r="B696" s="15"/>
-      <c r="C696" s="41"/>
-      <c r="D696" s="42"/>
+      <c r="A696" s="39"/>
+      <c r="B696" s="20"/>
+      <c r="C696" s="13"/>
+      <c r="D696" s="38"/>
       <c r="E696" s="9"/>
-      <c r="F696" s="15"/>
-      <c r="G696" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H696" s="42"/>
+      <c r="F696" s="20"/>
+      <c r="G696" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H696" s="38"/>
       <c r="I696" s="9"/>
-      <c r="J696" s="12"/>
-      <c r="K696" s="15"/>
+      <c r="J696" s="11"/>
+      <c r="K696" s="20"/>
+    </row>
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A697" s="39"/>
+      <c r="B697" s="20"/>
+      <c r="C697" s="13"/>
+      <c r="D697" s="38"/>
+      <c r="E697" s="9"/>
+      <c r="F697" s="20"/>
+      <c r="G697" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H697" s="38"/>
+      <c r="I697" s="9"/>
+      <c r="J697" s="11"/>
+      <c r="K697" s="20"/>
+    </row>
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A698" s="39"/>
+      <c r="B698" s="20"/>
+      <c r="C698" s="13"/>
+      <c r="D698" s="38"/>
+      <c r="E698" s="9"/>
+      <c r="F698" s="20"/>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H698" s="38"/>
+      <c r="I698" s="9"/>
+      <c r="J698" s="11"/>
+      <c r="K698" s="20"/>
+    </row>
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A699" s="40"/>
+      <c r="B699" s="15"/>
+      <c r="C699" s="41"/>
+      <c r="D699" s="42"/>
+      <c r="E699" s="9"/>
+      <c r="F699" s="15"/>
+      <c r="G699" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H699" s="42"/>
+      <c r="I699" s="9"/>
+      <c r="J699" s="12"/>
+      <c r="K699" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17856,13 +17968,15 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
       <c r="F3" s="11">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.11900000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="J3" s="46">
         <v>16</v>
@@ -17913,7 +18027,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>148.61900000000009</v>
+        <v>147.63600000000008</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/ASSESSOR/ANACAY, ABNER.xlsx
+++ b/REGULAR/ASSESSOR/ANACAY, ABNER.xlsx
@@ -2439,9 +2439,9 @@
   <dimension ref="A2:K699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A628" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A649" activePane="bottomLeft"/>
       <selection activeCell="H17" sqref="H17"/>
-      <selection pane="bottomLeft" activeCell="E642" sqref="E642"/>
+      <selection pane="bottomLeft" activeCell="C665" sqref="C665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,7 +2607,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.33600000000007</v>
+        <v>66.58600000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2617,7 +2617,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>82.3</v>
+        <v>83.55</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17117,13 +17117,15 @@
         <v>45292</v>
       </c>
       <c r="B655" s="20"/>
-      <c r="C655" s="13"/>
+      <c r="C655" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D655" s="38"/>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G655" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H655" s="38"/>
       <c r="I655" s="9"/>
@@ -18027,7 +18029,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>147.63600000000008</v>
+        <v>150.13600000000008</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>

--- a/REGULAR/ASSESSOR/ANACAY, ABNER.xlsx
+++ b/REGULAR/ASSESSOR/ANACAY, ABNER.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="461">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1410,6 +1410,12 @@
   </si>
   <si>
     <t>UT(0-3-36)</t>
+  </si>
+  <si>
+    <t>SL(22-0-0)</t>
+  </si>
+  <si>
+    <t>01/02-31/2024</t>
   </si>
 </sst>
 </file>
@@ -2441,7 +2447,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A649" activePane="bottomLeft"/>
       <selection activeCell="H17" sqref="H17"/>
-      <selection pane="bottomLeft" activeCell="C665" sqref="C665"/>
+      <selection pane="bottomLeft" activeCell="C655" sqref="C655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,7 +2623,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>83.55</v>
+        <v>61.55</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17116,7 +17122,9 @@
       <c r="A655" s="39">
         <v>45292</v>
       </c>
-      <c r="B655" s="20"/>
+      <c r="B655" s="20" t="s">
+        <v>459</v>
+      </c>
       <c r="C655" s="13">
         <v>1.25</v>
       </c>
@@ -17127,10 +17135,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H655" s="38"/>
+      <c r="H655" s="38">
+        <v>22</v>
+      </c>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
-      <c r="K655" s="20"/>
+      <c r="K655" s="20" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39">
@@ -18029,7 +18041,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>150.13600000000008</v>
+        <v>128.13600000000008</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
